--- a/assets/minimal-v1-sku.xlsx
+++ b/assets/minimal-v1-sku.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">prompt</t>
   </si>
@@ -28,7 +28,22 @@
     <t xml:space="preserve">product_sku</t>
   </si>
   <si>
-    <t xml:space="preserve">say hello</t>
+    <t xml:space="preserve">Popíš slunce, maximálně 20 slov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O čem psál Karel Čapek?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co je NFT?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test3</t>
   </si>
 </sst>
 </file>
@@ -112,7 +127,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -135,11 +150,14 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.04"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -153,101 +171,66 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>123</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>234</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>122</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>12</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>2222</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>2333</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>32</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>12334</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>3455</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>74</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
